--- a/_RESULTS/CROSS_VALIDATION_PREPROCESSED_CLR/MHZ/IZ/IZ_3_train_pca.xlsx
+++ b/_RESULTS/CROSS_VALIDATION_PREPROCESSED_CLR/MHZ/IZ/IZ_3_train_pca.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>lat</t>
   </si>
@@ -51,6 +51,153 @@
   </si>
   <si>
     <t>PC10</t>
+  </si>
+  <si>
+    <t>hole_id</t>
+  </si>
+  <si>
+    <t>LBU_02_4</t>
+  </si>
+  <si>
+    <t>LBU_07_01</t>
+  </si>
+  <si>
+    <t>LBU_05_05</t>
+  </si>
+  <si>
+    <t>MHZ_08_01</t>
+  </si>
+  <si>
+    <t>MHZ_08_03</t>
+  </si>
+  <si>
+    <t>LBU_05_26</t>
+  </si>
+  <si>
+    <t>MHZ_12_04</t>
+  </si>
+  <si>
+    <t>LBU_96_2</t>
+  </si>
+  <si>
+    <t>LBU_05_12</t>
+  </si>
+  <si>
+    <t>LBU_05_11</t>
+  </si>
+  <si>
+    <t>LBU_98_6</t>
+  </si>
+  <si>
+    <t>LBU_05_07</t>
+  </si>
+  <si>
+    <t>LBU_05_23</t>
+  </si>
+  <si>
+    <t>LBU_05_03</t>
+  </si>
+  <si>
+    <t>MHZ_12_03</t>
+  </si>
+  <si>
+    <t>LBU_98_1</t>
+  </si>
+  <si>
+    <t>LBU_05_30</t>
+  </si>
+  <si>
+    <t>LBU_98_2</t>
+  </si>
+  <si>
+    <t>MHZ_08_04</t>
+  </si>
+  <si>
+    <t>LBU_05_01</t>
+  </si>
+  <si>
+    <t>LBU_96_3</t>
+  </si>
+  <si>
+    <t>LBU_01_2</t>
+  </si>
+  <si>
+    <t>LBU_07_02</t>
+  </si>
+  <si>
+    <t>LBU_01_3</t>
+  </si>
+  <si>
+    <t>LBU_05_18</t>
+  </si>
+  <si>
+    <t>LBU_87_3</t>
+  </si>
+  <si>
+    <t>LBU_05_13</t>
+  </si>
+  <si>
+    <t>LBU_05_22</t>
+  </si>
+  <si>
+    <t>LBU_05_10</t>
+  </si>
+  <si>
+    <t>LBU_87_2</t>
+  </si>
+  <si>
+    <t>LBU_05_25</t>
+  </si>
+  <si>
+    <t>LBU_05_16</t>
+  </si>
+  <si>
+    <t>LBU_05_28</t>
+  </si>
+  <si>
+    <t>LBU_87_1</t>
+  </si>
+  <si>
+    <t>MHZ_08_02</t>
+  </si>
+  <si>
+    <t>LBU_98_7</t>
+  </si>
+  <si>
+    <t>LBU_87_4</t>
+  </si>
+  <si>
+    <t>LBU_87_6</t>
+  </si>
+  <si>
+    <t>LBU_05_06</t>
+  </si>
+  <si>
+    <t>LBU_05_15</t>
+  </si>
+  <si>
+    <t>LBU_05_17</t>
+  </si>
+  <si>
+    <t>LBU_01_1</t>
+  </si>
+  <si>
+    <t>LBU_05_04</t>
+  </si>
+  <si>
+    <t>MHZ_08_05</t>
+  </si>
+  <si>
+    <t>LBU_02_3</t>
+  </si>
+  <si>
+    <t>MHZ_12_01</t>
+  </si>
+  <si>
+    <t>LBU_05_20</t>
+  </si>
+  <si>
+    <t>LBU_87_5</t>
   </si>
   <si>
     <t>train</t>
@@ -418,6 +565,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +606,8 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B2">
         <v>50.98241663383807</v>
@@ -497,8 +647,8 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B3">
         <v>50.98464192443179</v>
@@ -538,8 +688,8 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B4">
         <v>50.99579022630753</v>
@@ -579,8 +729,8 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B5">
         <v>50.98671201622651</v>
@@ -620,8 +770,8 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B6">
         <v>50.98802360478114</v>
@@ -661,8 +811,8 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B7">
         <v>50.98753337997388</v>
@@ -702,8 +852,8 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B8">
         <v>50.9896977769397</v>
@@ -743,8 +893,8 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B9">
         <v>50.99605815121667</v>
@@ -784,8 +934,8 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B10">
         <v>50.98654528957025</v>
@@ -825,8 +975,8 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B11">
         <v>50.99646866130342</v>
@@ -866,8 +1016,8 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B12">
         <v>50.99016601993814</v>
@@ -907,8 +1057,8 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B13">
         <v>50.98783052537979</v>
@@ -948,8 +1098,8 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B14">
         <v>50.98911922044277</v>
@@ -989,8 +1139,8 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B15">
         <v>50.99161385501367</v>
@@ -1030,8 +1180,8 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B16">
         <v>50.99222117575066</v>
@@ -1071,8 +1221,8 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B17">
         <v>50.9838980058212</v>
@@ -1112,8 +1262,8 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B18">
         <v>50.99174035478059</v>
@@ -1153,8 +1303,8 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B19">
         <v>50.98382475349923</v>
@@ -1194,8 +1344,8 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B20">
         <v>50.9882849625887</v>
@@ -1235,8 +1385,8 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B21">
         <v>50.98778280308698</v>
@@ -1276,8 +1426,8 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B22">
         <v>50.98758432589115</v>
@@ -1317,8 +1467,8 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B23">
         <v>50.99053341474695</v>
@@ -1358,8 +1508,8 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B24">
         <v>50.98510085276035</v>
@@ -1399,8 +1549,8 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B25">
         <v>50.9930647042281</v>
@@ -1440,8 +1590,8 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B26">
         <v>50.99521644082776</v>
@@ -1481,8 +1631,8 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B27">
         <v>50.98700793238294</v>
@@ -1522,8 +1672,8 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B28">
         <v>50.99100568906481</v>
@@ -1563,8 +1713,8 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B29">
         <v>50.99339702144898</v>
@@ -1604,8 +1754,8 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B30">
         <v>50.9936846269973</v>
@@ -1645,8 +1795,8 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B31">
         <v>50.99108658083968</v>
@@ -1686,8 +1836,8 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B32">
         <v>50.99163049251336</v>
@@ -1727,8 +1877,8 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B33">
         <v>50.99199446222041</v>
@@ -1768,8 +1918,8 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B34">
         <v>50.99073338221342</v>
@@ -1809,8 +1959,8 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B35">
         <v>50.99497496599216</v>
@@ -1850,8 +2000,8 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B36">
         <v>50.98741681775469</v>
@@ -1891,8 +2041,8 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B37">
         <v>50.99299385350651</v>
@@ -1932,8 +2082,8 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B38">
         <v>50.98685298140838</v>
@@ -1973,8 +2123,8 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B39">
         <v>50.99464259472737</v>
@@ -2014,8 +2164,8 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B40">
         <v>50.98891593697725</v>
@@ -2055,8 +2205,8 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B41">
         <v>50.98992343094944</v>
@@ -2096,8 +2246,8 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B42">
         <v>50.99358435003506</v>
@@ -2137,8 +2287,8 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B43">
         <v>50.98640991139728</v>
@@ -2178,8 +2328,8 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B44">
         <v>50.99376052281768</v>
@@ -2219,8 +2369,8 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B45">
         <v>50.98848084635181</v>
@@ -2260,8 +2410,8 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B46">
         <v>50.98547191167107</v>
@@ -2301,8 +2451,8 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B47">
         <v>50.98991149032781</v>
@@ -2342,8 +2492,8 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B48">
         <v>50.99173989284744</v>
@@ -2383,8 +2533,8 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B49">
         <v>50.99070296705038</v>
@@ -2470,7 +2620,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <v>0.4726712646735385</v>
